--- a/biology/Zoologie/Diplotemnus_balcanicus/Diplotemnus_balcanicus.xlsx
+++ b/biology/Zoologie/Diplotemnus_balcanicus/Diplotemnus_balcanicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplotemnus balcanicus est une espèce de pseudoscorpions de la famille des Atemnidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Bulgarie, en Roumanie, en Slovaquie, en Hongrie, en Espagne aux îles Canaries, en Algérie, au Tchad, au Soudan, en Turquie, en Azerbaïdjan, en Iran, au Turkménistan, en Ouzbékistan, au Kazakhstan, au Kirghizistan, au Tadjikistan, en Afghanistan, en Inde, en Chine et en Mongolie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Bulgarie, en Roumanie, en Slovaquie, en Hongrie, en Espagne aux îles Canaries, en Algérie, au Tchad, au Soudan, en Turquie, en Azerbaïdjan, en Iran, au Turkménistan, en Ouzbékistan, au Kazakhstan, au Kirghizistan, au Tadjikistan, en Afghanistan, en Inde, en Chine et en Mongolie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,97 à 6,18 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,97 à 6,18 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chelifer balcanicus par Redikorzev en 1928. Elle est placée dans le genre Rhacochelifer par Beier en 1932[4] puis dans le genre Diplotemnus par Novák et Harvey en 2015[3].
-Diplotemnus insolitus[5], Chelifer persicus[6], Chelifer soderbomi[7], Diplotemnus ophthalmicus[8], Diplotemnus pomerantzevi[8], Miratemnus piger sinensis[9], Diplotemnus afghanicus [10], Diplotemnus lindbergi[11], Diplotemnus vachoni[12], Diplotemnus beieri[13], Rhacochelifer iranicus[14], Diplotemnus milleri[15] et Diplotemnus turanicus[15] ont été placées en synonymie par Novák et Harvey en 2015[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Chelifer balcanicus par Redikorzev en 1928. Elle est placée dans le genre Rhacochelifer par Beier en 1932 puis dans le genre Diplotemnus par Novák et Harvey en 2015.
+Diplotemnus insolitus, Chelifer persicus, Chelifer soderbomi, Diplotemnus ophthalmicus, Diplotemnus pomerantzevi, Miratemnus piger sinensis, Diplotemnus afghanicus , Diplotemnus lindbergi, Diplotemnus vachoni, Diplotemnus beieri, Rhacochelifer iranicus, Diplotemnus milleri et Diplotemnus turanicus ont été placées en synonymie par Novák et Harvey en 2015.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, les Balkans.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Redikorzev, 1928 : « Beiträge zur Kenntnis der Pseudoscorpionenfauna Bulgariens. » Mitteilungen aus dem Königlichen Naturwissenschaftlichen Institut in Sofia, vol. 1, p. 118-141.</t>
         </is>
